--- a/java/rabbitMQ.xlsx
+++ b/java/rabbitMQ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>消息中间件</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>https://www.rabbitmq.com/</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>https://www.kuangstudy.com/zl/rabbitmq</t>
   </si>
 </sst>
 </file>
@@ -37,7 +43,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +57,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,48 +501,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,97 +555,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
@@ -1031,12 +1030,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.rabbitmq.com/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.kuangstudy.com/zl/rabbitmq"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
